--- a/UserDummyData.xlsx
+++ b/UserDummyData.xlsx
@@ -1723,7 +1723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1738,6 +1738,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1757,10 +1764,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1768,8 +1779,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2065,7 +2080,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2105,7 +2120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="90">
+    <row r="2" spans="1:10" ht="60">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -2148,7 +2163,7 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2165,7 +2180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="90">
+    <row r="4" spans="1:10" ht="75">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
@@ -2197,7 +2212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="90">
+    <row r="5" spans="1:10" ht="60">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -2229,7 +2244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45">
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2257,7 +2272,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="90">
+    <row r="7" spans="1:10" ht="60">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -2289,7 +2304,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45">
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -2321,7 +2336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2353,7 +2368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60">
+    <row r="10" spans="1:10" ht="45">
       <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75">
+    <row r="11" spans="1:10" ht="60">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -2415,7 +2430,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="105">
+    <row r="12" spans="1:10" ht="75">
       <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
@@ -2447,7 +2462,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="75">
+    <row r="13" spans="1:10" ht="60">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -2479,7 +2494,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:10" ht="30">
       <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
@@ -2507,7 +2522,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="75">
+    <row r="15" spans="1:10" ht="45">
       <c r="A15" s="1" t="s">
         <v>118</v>
       </c>
@@ -2539,7 +2554,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="75">
+    <row r="16" spans="1:10" ht="60">
       <c r="A16" s="1" t="s">
         <v>123</v>
       </c>
@@ -2569,7 +2584,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="75">
+    <row r="17" spans="1:10" ht="45">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -2601,7 +2616,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45">
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="1" t="s">
         <v>133</v>
       </c>
@@ -2633,7 +2648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="75">
+    <row r="19" spans="1:10" ht="60">
       <c r="A19" s="1" t="s">
         <v>138</v>
       </c>
@@ -2663,7 +2678,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="75">
+    <row r="20" spans="1:10" ht="60">
       <c r="A20" s="1" t="s">
         <v>143</v>
       </c>
@@ -2695,7 +2710,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75">
+    <row r="21" spans="1:10" ht="60">
       <c r="A21" s="1" t="s">
         <v>148</v>
       </c>
@@ -2727,7 +2742,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="105">
+    <row r="22" spans="1:10" ht="75">
       <c r="A22" s="1" t="s">
         <v>153</v>
       </c>
@@ -2759,7 +2774,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="90">
+    <row r="23" spans="1:10" ht="60">
       <c r="A23" s="1" t="s">
         <v>159</v>
       </c>
@@ -2791,7 +2806,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="75">
+    <row r="24" spans="1:10" ht="45">
       <c r="A24" s="1" t="s">
         <v>164</v>
       </c>
@@ -2823,7 +2838,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="75">
+    <row r="25" spans="1:10" ht="45">
       <c r="A25" s="1" t="s">
         <v>170</v>
       </c>
@@ -2855,7 +2870,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="75">
+    <row r="26" spans="1:10" ht="60">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -2887,7 +2902,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="105">
+    <row r="27" spans="1:10" ht="60">
       <c r="A27" s="1" t="s">
         <v>181</v>
       </c>
@@ -2919,7 +2934,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="75">
+    <row r="28" spans="1:10" ht="45">
       <c r="A28" s="1" t="s">
         <v>187</v>
       </c>
@@ -2951,7 +2966,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="105">
+    <row r="29" spans="1:10" ht="60">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -3015,7 +3030,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="75">
+    <row r="31" spans="1:10" ht="60">
       <c r="A31" s="1" t="s">
         <v>203</v>
       </c>
@@ -3047,7 +3062,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="75">
+    <row r="32" spans="1:10" ht="60">
       <c r="A32" s="1" t="s">
         <v>209</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="90">
+    <row r="33" spans="1:10" ht="45">
       <c r="A33" s="1" t="s">
         <v>214</v>
       </c>
@@ -3111,7 +3126,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="60">
+    <row r="34" spans="1:10" ht="30">
       <c r="A34" s="1" t="s">
         <v>220</v>
       </c>
@@ -3143,7 +3158,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="60">
+    <row r="35" spans="1:10" ht="45">
       <c r="A35" s="1" t="s">
         <v>225</v>
       </c>
@@ -3205,7 +3220,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="60">
+    <row r="37" spans="1:10" ht="45">
       <c r="A37" s="1" t="s">
         <v>235</v>
       </c>
@@ -3237,7 +3252,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="60">
+    <row r="38" spans="1:10" ht="45">
       <c r="A38" s="1" t="s">
         <v>240</v>
       </c>
@@ -3269,7 +3284,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="60">
+    <row r="39" spans="1:10" ht="45">
       <c r="A39" s="1" t="s">
         <v>246</v>
       </c>
@@ -3365,7 +3380,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="60">
+    <row r="42" spans="1:10" ht="45">
       <c r="A42" s="1" t="s">
         <v>261</v>
       </c>
@@ -3397,7 +3412,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="75">
+    <row r="43" spans="1:10" ht="60">
       <c r="A43" s="1" t="s">
         <v>267</v>
       </c>
@@ -3429,7 +3444,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="75">
+    <row r="44" spans="1:10" ht="45">
       <c r="A44" s="1" t="s">
         <v>273</v>
       </c>
@@ -3493,7 +3508,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="105">
+    <row r="46" spans="1:10" ht="60">
       <c r="A46" s="1" t="s">
         <v>284</v>
       </c>
@@ -3525,7 +3540,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="45">
+    <row r="47" spans="1:10" ht="30">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -3557,7 +3572,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="135">
+    <row r="48" spans="1:10" ht="75">
       <c r="A48" s="1" t="s">
         <v>294</v>
       </c>
@@ -3589,7 +3604,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="105">
+    <row r="49" spans="1:10" ht="60">
       <c r="A49" s="1" t="s">
         <v>299</v>
       </c>
@@ -3621,7 +3636,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="120">
+    <row r="50" spans="1:10" ht="75">
       <c r="A50" s="1" t="s">
         <v>305</v>
       </c>
@@ -3651,7 +3666,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="90">
+    <row r="51" spans="1:10" ht="60">
       <c r="A51" s="1" t="s">
         <v>310</v>
       </c>
@@ -3681,7 +3696,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="90">
+    <row r="52" spans="1:10" ht="75">
       <c r="A52" s="1" t="s">
         <v>315</v>
       </c>
@@ -3711,7 +3726,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="60">
+    <row r="53" spans="1:10" ht="45">
       <c r="A53" s="1" t="s">
         <v>320</v>
       </c>
@@ -3775,7 +3790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="105">
+    <row r="55" spans="1:10" ht="60">
       <c r="A55" s="1" t="s">
         <v>330</v>
       </c>
@@ -3807,7 +3822,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="60">
+    <row r="56" spans="1:10" ht="45">
       <c r="A56" s="1" t="s">
         <v>336</v>
       </c>
@@ -3839,7 +3854,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="90">
+    <row r="57" spans="1:10" ht="60">
       <c r="A57" s="1" t="s">
         <v>342</v>
       </c>
@@ -3871,7 +3886,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="75">
+    <row r="58" spans="1:10" ht="60">
       <c r="A58" s="1" t="s">
         <v>348</v>
       </c>
@@ -3903,7 +3918,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="90">
+    <row r="59" spans="1:10" ht="60">
       <c r="A59" s="1" t="s">
         <v>353</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="75">
+    <row r="60" spans="1:10" ht="60">
       <c r="A60" s="1" t="s">
         <v>358</v>
       </c>
@@ -3967,7 +3982,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="90">
+    <row r="61" spans="1:10" ht="45">
       <c r="A61" s="1" t="s">
         <v>364</v>
       </c>
@@ -3999,7 +4014,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="75">
+    <row r="62" spans="1:10" ht="60">
       <c r="A62" s="1" t="s">
         <v>369</v>
       </c>
@@ -4031,7 +4046,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="120">
+    <row r="63" spans="1:10" ht="90">
       <c r="A63" s="1" t="s">
         <v>375</v>
       </c>
@@ -4061,7 +4076,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" ht="75">
+    <row r="64" spans="1:10" ht="45">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -4093,7 +4108,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="90">
+    <row r="65" spans="1:10" ht="45">
       <c r="A65" s="1" t="s">
         <v>50</v>
       </c>
@@ -4157,7 +4172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="75">
+    <row r="67" spans="1:10" ht="60">
       <c r="A67" s="1" t="s">
         <v>392</v>
       </c>
@@ -4189,7 +4204,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="45">
+    <row r="68" spans="1:10" ht="30">
       <c r="A68" s="1" t="s">
         <v>398</v>
       </c>
@@ -4221,7 +4236,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="105">
+    <row r="69" spans="1:10" ht="60">
       <c r="A69" s="1" t="s">
         <v>404</v>
       </c>
@@ -4253,7 +4268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="60">
+    <row r="70" spans="1:10" ht="45">
       <c r="A70" s="1" t="s">
         <v>409</v>
       </c>
@@ -4285,7 +4300,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="135">
+    <row r="71" spans="1:10" ht="90">
       <c r="A71" s="1" t="s">
         <v>415</v>
       </c>
@@ -4315,7 +4330,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="75">
+    <row r="72" spans="1:10" ht="60">
       <c r="A72" s="1" t="s">
         <v>415</v>
       </c>
@@ -4347,7 +4362,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="90">
+    <row r="73" spans="1:10" ht="60">
       <c r="A73" s="1" t="s">
         <v>424</v>
       </c>
@@ -4379,7 +4394,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="75">
+    <row r="74" spans="1:10" ht="45">
       <c r="A74" s="1" t="s">
         <v>429</v>
       </c>
@@ -4439,7 +4454,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="75">
+    <row r="76" spans="1:10" ht="45">
       <c r="A76" s="1" t="s">
         <v>438</v>
       </c>
@@ -4471,7 +4486,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="45">
+    <row r="77" spans="1:10" ht="30">
       <c r="A77" s="1" t="s">
         <v>444</v>
       </c>
@@ -4499,7 +4514,7 @@
       </c>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" ht="90">
+    <row r="78" spans="1:10" ht="60">
       <c r="A78" s="1" t="s">
         <v>448</v>
       </c>
@@ -4531,7 +4546,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="90">
+    <row r="79" spans="1:10" ht="75">
       <c r="A79" s="1" t="s">
         <v>453</v>
       </c>
@@ -4563,7 +4578,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="90">
+    <row r="80" spans="1:10" ht="60">
       <c r="A80" s="1" t="s">
         <v>459</v>
       </c>
@@ -4595,7 +4610,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="90">
+    <row r="81" spans="1:10" ht="75">
       <c r="A81" s="1" t="s">
         <v>465</v>
       </c>
@@ -4627,7 +4642,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="105">
+    <row r="82" spans="1:10" ht="90">
       <c r="A82" s="1" t="s">
         <v>471</v>
       </c>
@@ -4657,7 +4672,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="90">
+    <row r="83" spans="1:10" ht="60">
       <c r="A83" s="1" t="s">
         <v>476</v>
       </c>
@@ -4689,7 +4704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="90">
+    <row r="84" spans="1:10" ht="60">
       <c r="A84" s="1" t="s">
         <v>52</v>
       </c>
@@ -4721,7 +4736,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="90">
+    <row r="85" spans="1:10" ht="75">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
@@ -4753,7 +4768,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="105">
+    <row r="86" spans="1:10" ht="75">
       <c r="A86" s="1" t="s">
         <v>34</v>
       </c>
@@ -4785,7 +4800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="75">
+    <row r="87" spans="1:10" ht="60">
       <c r="A87" s="1" t="s">
         <v>494</v>
       </c>
@@ -4849,7 +4864,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="45">
+    <row r="89" spans="1:10" ht="30">
       <c r="A89" s="1" t="s">
         <v>504</v>
       </c>
@@ -4881,7 +4896,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="75">
+    <row r="90" spans="1:10" ht="45">
       <c r="A90" s="1" t="s">
         <v>509</v>
       </c>
@@ -4913,7 +4928,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="75">
+    <row r="91" spans="1:10" ht="45">
       <c r="A91" s="1" t="s">
         <v>514</v>
       </c>
@@ -4945,7 +4960,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="45">
+    <row r="92" spans="1:10" ht="30">
       <c r="A92" s="1" t="s">
         <v>519</v>
       </c>
@@ -4977,7 +4992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="90">
+    <row r="93" spans="1:10" ht="60">
       <c r="A93" s="1" t="s">
         <v>523</v>
       </c>
@@ -5009,7 +5024,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="90">
+    <row r="94" spans="1:10" ht="60">
       <c r="A94" s="1" t="s">
         <v>528</v>
       </c>
@@ -5041,7 +5056,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="75">
+    <row r="95" spans="1:10" ht="60">
       <c r="A95" s="1" t="s">
         <v>534</v>
       </c>
@@ -5071,7 +5086,7 @@
       </c>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" ht="60">
+    <row r="96" spans="1:10" ht="45">
       <c r="A96" s="1" t="s">
         <v>539</v>
       </c>
@@ -5133,7 +5148,7 @@
       </c>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" ht="105">
+    <row r="98" spans="1:10" ht="60">
       <c r="A98" s="1" t="s">
         <v>51</v>
       </c>
@@ -5163,7 +5178,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="60">
+    <row r="99" spans="1:10" ht="45">
       <c r="A99" s="1" t="s">
         <v>552</v>
       </c>
@@ -5195,7 +5210,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="90">
+    <row r="100" spans="1:10" ht="75">
       <c r="A100" s="1" t="s">
         <v>557</v>
       </c>
@@ -5225,7 +5240,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="105">
+    <row r="101" spans="1:10" ht="75">
       <c r="A101" s="1" t="s">
         <v>562</v>
       </c>
@@ -5256,8 +5271,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
